--- a/Operaciones.xlsx
+++ b/Operaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\PycharmProjects\Panel de inversiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70065D4A-B625-459A-9290-4A20A22A13A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CAED20-4E63-4EF7-B03D-976DC27A09EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{69B6B5DA-D7CD-481A-8ED0-7A03B47166E3}"/>
+    <workbookView xWindow="-20610" yWindow="-5100" windowWidth="20730" windowHeight="11040" xr2:uid="{69B6B5DA-D7CD-481A-8ED0-7A03B47166E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -373,10 +373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -717,7 +713,7 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,7 +723,7 @@
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -756,7 +752,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -800,7 +796,7 @@
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="2">
         <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -844,7 +840,7 @@
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="2">
         <v>97</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -853,7 +849,7 @@
       <c r="I3" s="2">
         <v>62750</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="6">
         <v>60867.5</v>
       </c>
       <c r="K3" s="2">
@@ -888,7 +884,7 @@
       <c r="F4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="2">
         <v>100</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -932,7 +928,7 @@
       <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>76</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -947,7 +943,7 @@
       <c r="K5" s="2">
         <v>206.4</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>0</v>
       </c>
       <c r="M5" s="2">
@@ -976,7 +972,7 @@
       <c r="F6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="2">
         <v>5613</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1020,7 +1016,7 @@
       <c r="F7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="2">
         <v>57</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1064,7 +1060,7 @@
       <c r="F8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="2">
         <v>57</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1108,7 +1104,7 @@
       <c r="F9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="2">
         <v>48</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -1152,7 +1148,7 @@
       <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="2">
         <v>18</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -1196,7 +1192,7 @@
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="2">
         <v>6</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -1240,7 +1236,7 @@
       <c r="F12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="2">
         <v>32</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -1284,7 +1280,7 @@
       <c r="F13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="2">
         <v>10</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1328,7 +1324,7 @@
       <c r="F14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -1372,7 +1368,7 @@
       <c r="F15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="2">
         <v>190</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -1416,7 +1412,7 @@
       <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="2">
         <v>29</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -1460,7 +1456,7 @@
       <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="2">
         <v>4</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -1504,7 +1500,7 @@
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="2">
         <v>310</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -1548,7 +1544,7 @@
       <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="2">
         <v>33</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -1592,7 +1588,7 @@
       <c r="F20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="2">
         <v>5</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -1636,7 +1632,7 @@
       <c r="F21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="2">
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -1680,14 +1676,14 @@
       <c r="F22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="6">
-        <v>1</v>
+      <c r="G22" s="2">
+        <v>2</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="2">
-        <v>14445</v>
+        <v>7222.5</v>
       </c>
       <c r="J22" s="2">
         <v>14445</v>
@@ -1724,7 +1720,7 @@
       <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="2">
         <v>22</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -1768,7 +1764,7 @@
       <c r="F24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="2">
         <v>2</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -1812,7 +1808,7 @@
       <c r="F25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -1856,7 +1852,7 @@
       <c r="F26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="2">
         <v>14</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -1900,7 +1896,7 @@
       <c r="F27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -1944,14 +1940,14 @@
       <c r="F28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="6">
-        <v>1</v>
+      <c r="G28" s="2">
+        <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="2">
-        <v>18367</v>
+        <v>6122.333333333333</v>
       </c>
       <c r="J28" s="2">
         <v>18367</v>
@@ -1988,7 +1984,7 @@
       <c r="F29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="2">
         <v>2</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -2032,14 +2028,14 @@
       <c r="F30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="6">
-        <v>2</v>
+      <c r="G30" s="2">
+        <v>4</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="2">
-        <v>12700</v>
+        <v>6350</v>
       </c>
       <c r="J30" s="2">
         <v>25400</v>
@@ -2076,7 +2072,7 @@
       <c r="F31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -2120,7 +2116,7 @@
       <c r="F32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="5" t="s">
@@ -2164,14 +2160,14 @@
       <c r="F33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="6">
-        <v>1</v>
+      <c r="G33" s="2">
+        <v>3</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="2">
-        <v>14096.5</v>
+        <v>4698.833333333333</v>
       </c>
       <c r="J33" s="2">
         <v>14096.5</v>
@@ -2208,7 +2204,7 @@
       <c r="F34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="2">
         <v>2</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -2252,7 +2248,7 @@
       <c r="F35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="2">
         <v>99</v>
       </c>
       <c r="H35" s="5" t="s">
@@ -2296,14 +2292,14 @@
       <c r="F36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="6">
-        <v>1</v>
+      <c r="G36" s="2">
+        <v>3</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="2">
-        <v>12261</v>
+        <v>4087</v>
       </c>
       <c r="J36" s="2">
         <v>12261</v>
@@ -2340,7 +2336,7 @@
       <c r="F37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="2">
         <v>16</v>
       </c>
       <c r="H37" s="5" t="s">
@@ -2384,7 +2380,7 @@
       <c r="F38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="2">
         <v>1</v>
       </c>
       <c r="H38" s="5" t="s">
@@ -2428,7 +2424,7 @@
       <c r="F39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="2">
         <v>1</v>
       </c>
       <c r="H39" s="5" t="s">
@@ -2472,7 +2468,7 @@
       <c r="F40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="2">
         <v>7</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -2516,7 +2512,7 @@
       <c r="F41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="2">
         <v>4</v>
       </c>
       <c r="H41" s="5" t="s">
@@ -2560,7 +2556,7 @@
       <c r="F42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="2">
         <v>6</v>
       </c>
       <c r="H42" s="5" t="s">
@@ -2604,7 +2600,7 @@
       <c r="F43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="2">
         <v>7</v>
       </c>
       <c r="H43" s="5" t="s">
@@ -2648,7 +2644,7 @@
       <c r="F44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="2">
         <v>2</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -2692,7 +2688,7 @@
       <c r="F45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="2">
         <v>9</v>
       </c>
       <c r="H45" s="5" t="s">
@@ -2736,14 +2732,14 @@
       <c r="F46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="6">
-        <v>1</v>
+      <c r="G46" s="2">
+        <v>2</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I46" s="2">
-        <v>8885</v>
+        <v>4442.5</v>
       </c>
       <c r="J46" s="2">
         <v>8885</v>
@@ -2780,7 +2776,7 @@
       <c r="F47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="2">
         <v>32</v>
       </c>
       <c r="H47" s="5" t="s">
@@ -2824,7 +2820,7 @@
       <c r="F48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="2">
         <v>27</v>
       </c>
       <c r="H48" s="5" t="s">
@@ -2868,7 +2864,7 @@
       <c r="F49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="2">
         <v>4</v>
       </c>
       <c r="H49" s="5" t="s">
@@ -2912,7 +2908,7 @@
       <c r="F50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="2">
         <v>6</v>
       </c>
       <c r="H50" s="5" t="s">
@@ -2956,7 +2952,7 @@
       <c r="F51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="2">
         <v>3</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -3000,7 +2996,7 @@
       <c r="F52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="2">
         <v>7</v>
       </c>
       <c r="H52" s="5" t="s">
@@ -3044,7 +3040,7 @@
       <c r="F53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="2">
         <v>6</v>
       </c>
       <c r="H53" s="5" t="s">
@@ -3088,7 +3084,7 @@
       <c r="F54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="2">
         <v>3</v>
       </c>
       <c r="H54" s="5" t="s">
@@ -3132,14 +3128,14 @@
       <c r="F55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G55" s="6">
-        <v>2</v>
+      <c r="G55" s="2">
+        <v>6</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I55" s="2">
-        <v>10760</v>
+        <v>3586.6666666666665</v>
       </c>
       <c r="J55" s="2">
         <v>21520</v>
@@ -3176,7 +3172,7 @@
       <c r="F56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="2">
         <v>1</v>
       </c>
       <c r="H56" s="5" t="s">
@@ -3220,7 +3216,7 @@
       <c r="F57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="2">
         <v>1</v>
       </c>
       <c r="H57" s="5" t="s">
@@ -3264,14 +3260,14 @@
       <c r="F58" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="6">
-        <v>1</v>
+      <c r="G58" s="2">
+        <v>3</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="2">
-        <v>10760</v>
+        <v>3586.6666666666665</v>
       </c>
       <c r="J58" s="2">
         <v>10760</v>
@@ -3308,7 +3304,7 @@
       <c r="F59" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="2">
         <v>20</v>
       </c>
       <c r="H59" s="5" t="s">
@@ -3352,7 +3348,7 @@
       <c r="F60" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="2">
         <v>2</v>
       </c>
       <c r="H60" s="5" t="s">
@@ -3396,7 +3392,7 @@
       <c r="F61" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="2">
         <v>8</v>
       </c>
       <c r="H61" s="5" t="s">
@@ -3440,7 +3436,7 @@
       <c r="F62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="2">
         <v>30</v>
       </c>
       <c r="H62" s="5" t="s">
